--- a/assets/files/samples/korean_verbs_100.xlsx
+++ b/assets/files/samples/korean_verbs_100.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,9 +650,569 @@
         <v>to die</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>열다</v>
+      </c>
+      <c r="B32" t="str">
+        <v>to open</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>닫다</v>
+      </c>
+      <c r="B33" t="str">
+        <v>to close</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>입다</v>
+      </c>
+      <c r="B34" t="str">
+        <v>to wear</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>벗다</v>
+      </c>
+      <c r="B35" t="str">
+        <v>to take off</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>신다</v>
+      </c>
+      <c r="B36" t="str">
+        <v>to wear (shoes/socks)</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>타다</v>
+      </c>
+      <c r="B37" t="str">
+        <v>to ride</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>내리다</v>
+      </c>
+      <c r="B38" t="str">
+        <v>to get off</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>걷다</v>
+      </c>
+      <c r="B39" t="str">
+        <v>to walk</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>뛰다</v>
+      </c>
+      <c r="B40" t="str">
+        <v>to run</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>앉다</v>
+      </c>
+      <c r="B41" t="str">
+        <v>to sit</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>서다</v>
+      </c>
+      <c r="B42" t="str">
+        <v>to stand</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>알다</v>
+      </c>
+      <c r="B43" t="str">
+        <v>to know</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>모르다</v>
+      </c>
+      <c r="B44" t="str">
+        <v>to not know</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>생각하다</v>
+      </c>
+      <c r="B45" t="str">
+        <v>to think</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>기억하다</v>
+      </c>
+      <c r="B46" t="str">
+        <v>to remember</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>잊다</v>
+      </c>
+      <c r="B47" t="str">
+        <v>to forget</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>느끼다</v>
+      </c>
+      <c r="B48" t="str">
+        <v>to feel</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>보내다</v>
+      </c>
+      <c r="B49" t="str">
+        <v>to send</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>빌리다</v>
+      </c>
+      <c r="B50" t="str">
+        <v>to borrow</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>돌려주다</v>
+      </c>
+      <c r="B51" t="str">
+        <v>to return</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>돕다</v>
+      </c>
+      <c r="B52" t="str">
+        <v>to help</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>필요하다</v>
+      </c>
+      <c r="B53" t="str">
+        <v>to need</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>찾다</v>
+      </c>
+      <c r="B54" t="str">
+        <v>to find/look for</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>잃어버리다</v>
+      </c>
+      <c r="B55" t="str">
+        <v>to lose</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>시작하다</v>
+      </c>
+      <c r="B56" t="str">
+        <v>to start</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>끝나다</v>
+      </c>
+      <c r="B57" t="str">
+        <v>to end</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>기다리다</v>
+      </c>
+      <c r="B58" t="str">
+        <v>to wait</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>준비하다</v>
+      </c>
+      <c r="B59" t="str">
+        <v>to prepare</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>약속하다</v>
+      </c>
+      <c r="B60" t="str">
+        <v>to promise</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>거짓말하다</v>
+      </c>
+      <c r="B61" t="str">
+        <v>to lie</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>고백하다</v>
+      </c>
+      <c r="B62" t="str">
+        <v>to confess</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>결혼하다</v>
+      </c>
+      <c r="B63" t="str">
+        <v>to marry</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>이혼하다</v>
+      </c>
+      <c r="B64" t="str">
+        <v>to divorce</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>태어나다</v>
+      </c>
+      <c r="B65" t="str">
+        <v>to be born</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>자라다</v>
+      </c>
+      <c r="B66" t="str">
+        <v>to grow up</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>이기다</v>
+      </c>
+      <c r="B67" t="str">
+        <v>to win</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>지다</v>
+      </c>
+      <c r="B68" t="str">
+        <v>to lose (game)</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>싸우다</v>
+      </c>
+      <c r="B69" t="str">
+        <v>to fight</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>화내다</v>
+      </c>
+      <c r="B70" t="str">
+        <v>to get angry</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>용서하다</v>
+      </c>
+      <c r="B71" t="str">
+        <v>to forgive</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>사과하다</v>
+      </c>
+      <c r="B72" t="str">
+        <v>to apologize</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>감사하다</v>
+      </c>
+      <c r="B73" t="str">
+        <v>to thank</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>축하하다</v>
+      </c>
+      <c r="B74" t="str">
+        <v>to congratulate</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>노래하다</v>
+      </c>
+      <c r="B75" t="str">
+        <v>to sing</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>춤추다</v>
+      </c>
+      <c r="B76" t="str">
+        <v>to dance</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>그리다</v>
+      </c>
+      <c r="B77" t="str">
+        <v>to draw</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>만들다</v>
+      </c>
+      <c r="B78" t="str">
+        <v>to make</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>고치다</v>
+      </c>
+      <c r="B79" t="str">
+        <v>to fix</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>청소하다</v>
+      </c>
+      <c r="B80" t="str">
+        <v>to clean</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>요리하다</v>
+      </c>
+      <c r="B81" t="str">
+        <v>to cook</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>빨래하다</v>
+      </c>
+      <c r="B82" t="str">
+        <v>to do laundry</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>운전하다</v>
+      </c>
+      <c r="B83" t="str">
+        <v>to drive</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>여행하다</v>
+      </c>
+      <c r="B84" t="str">
+        <v>to travel</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>운동하다</v>
+      </c>
+      <c r="B85" t="str">
+        <v>to exercise</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>공부하다</v>
+      </c>
+      <c r="B86" t="str">
+        <v>to study</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>일하다</v>
+      </c>
+      <c r="B87" t="str">
+        <v>to work</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>쉬다</v>
+      </c>
+      <c r="B88" t="str">
+        <v>to rest</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>잠자다</v>
+      </c>
+      <c r="B89" t="str">
+        <v>to sleep</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>꿈꾸다</v>
+      </c>
+      <c r="B90" t="str">
+        <v>to dream</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>믿다</v>
+      </c>
+      <c r="B91" t="str">
+        <v>to believe</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>바라다</v>
+      </c>
+      <c r="B92" t="str">
+        <v>to hope/wish</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>걱정하다</v>
+      </c>
+      <c r="B93" t="str">
+        <v>to worry</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>기뻐하다</v>
+      </c>
+      <c r="B94" t="str">
+        <v>to rejoice</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>슬퍼하다</v>
+      </c>
+      <c r="B95" t="str">
+        <v>to be sad</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>놀라다</v>
+      </c>
+      <c r="B96" t="str">
+        <v>to be surprised</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>무서워하다</v>
+      </c>
+      <c r="B97" t="str">
+        <v>to be afraid</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>부러워하다</v>
+      </c>
+      <c r="B98" t="str">
+        <v>to envy</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>질투하다</v>
+      </c>
+      <c r="B99" t="str">
+        <v>to be jealous</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>존경하다</v>
+      </c>
+      <c r="B100" t="str">
+        <v>to respect</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>무시하다</v>
+      </c>
+      <c r="B101" t="str">
+        <v>to ignore</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B101"/>
   </ignoredErrors>
 </worksheet>
 </file>